--- a/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71D1836-C89B-4B5A-BD53-5137A633EFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0BD1EC-DF7F-4E09-BE9D-79D0B036D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DD8B5DC-16FA-4F12-A0A5-8B8020B192FD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FB2CCDC-1785-4BED-8795-CCE28366829E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="324">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,901 +104,907 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,25%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>6,31%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B0CB5-9551-45E6-8AF2-44AA6F652F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A707218-B433-4836-85E1-940E12D94515}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1591,10 +1597,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -1603,13 +1609,13 @@
         <v>3721</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -1618,19 +1624,19 @@
         <v>5913</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -1642,10 +1648,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -1654,13 +1660,13 @@
         <v>3909</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -1669,19 +1675,19 @@
         <v>7185</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>321</v>
@@ -1690,13 +1696,13 @@
         <v>252629</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>512</v>
@@ -1705,13 +1711,13 @@
         <v>260361</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>833</v>
@@ -1720,13 +1726,13 @@
         <v>512989</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,13 +1747,13 @@
         <v>260298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -1756,13 +1762,13 @@
         <v>271403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
@@ -1771,18 +1777,18 @@
         <v>531700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1794,13 +1800,13 @@
         <v>14321</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
@@ -1809,13 +1815,13 @@
         <v>40556</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -1824,13 +1830,13 @@
         <v>54877</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1851,13 @@
         <v>10341</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -1860,13 +1866,13 @@
         <v>28835</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -1875,19 +1881,19 @@
         <v>39176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
@@ -1896,13 +1902,13 @@
         <v>45584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>83</v>
@@ -1911,13 +1917,13 @@
         <v>57801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
@@ -1926,19 +1932,19 @@
         <v>103385</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>322</v>
@@ -1947,13 +1953,13 @@
         <v>447981</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>535</v>
@@ -1962,13 +1968,13 @@
         <v>426750</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>857</v>
@@ -1977,13 +1983,13 @@
         <v>874731</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +2004,13 @@
         <v>518227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>716</v>
@@ -2013,13 +2019,13 @@
         <v>553942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1097</v>
@@ -2028,18 +2034,18 @@
         <v>1072168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2051,13 +2057,13 @@
         <v>4868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -2066,13 +2072,13 @@
         <v>18124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -2081,13 +2087,13 @@
         <v>22992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2108,13 @@
         <v>2637</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -2117,13 +2123,13 @@
         <v>9660</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -2132,19 +2138,19 @@
         <v>12297</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>14</v>
@@ -2153,13 +2159,13 @@
         <v>13282</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -2168,13 +2174,13 @@
         <v>17868</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -2183,19 +2189,19 @@
         <v>31149</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>335</v>
@@ -2204,13 +2210,13 @@
         <v>301453</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>462</v>
@@ -2219,13 +2225,13 @@
         <v>327633</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>797</v>
@@ -2234,13 +2240,13 @@
         <v>629086</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2261,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -2270,13 +2276,13 @@
         <v>373284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>896</v>
@@ -2285,18 +2291,18 @@
         <v>695524</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2308,13 +2314,13 @@
         <v>19523</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -2323,13 +2329,13 @@
         <v>32521</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -2338,13 +2344,13 @@
         <v>52044</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2365,13 @@
         <v>3708</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2392,16 +2398,16 @@
         <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>14</v>
@@ -2410,13 +2416,13 @@
         <v>15018</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -2425,13 +2431,13 @@
         <v>31370</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -2440,19 +2446,19 @@
         <v>46388</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>251</v>
@@ -2461,13 +2467,13 @@
         <v>283991</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>471</v>
@@ -2476,13 +2482,13 @@
         <v>357731</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>722</v>
@@ -2491,13 +2497,13 @@
         <v>641722</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2518,13 @@
         <v>322240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
@@ -2527,13 +2533,13 @@
         <v>428556</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
@@ -2542,18 +2548,18 @@
         <v>750796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2565,13 +2571,13 @@
         <v>3224</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2580,13 +2586,13 @@
         <v>5504</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -2595,13 +2601,13 @@
         <v>8729</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2622,13 @@
         <v>6891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2631,13 +2637,13 @@
         <v>12372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2646,19 +2652,19 @@
         <v>19263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>87</v>
@@ -2667,13 +2673,13 @@
         <v>58476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -2682,13 +2688,13 @@
         <v>89239</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -2697,19 +2703,19 @@
         <v>147715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>176</v>
@@ -2718,13 +2724,13 @@
         <v>128157</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>239</v>
@@ -2733,13 +2739,13 @@
         <v>124380</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>415</v>
@@ -2748,13 +2754,13 @@
         <v>252537</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2775,13 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
@@ -2784,13 +2790,13 @@
         <v>231496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
@@ -2799,18 +2805,18 @@
         <v>428244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2822,13 +2828,13 @@
         <v>14689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>76</v>
@@ -2837,13 +2843,13 @@
         <v>35667</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
@@ -2852,13 +2858,13 @@
         <v>50355</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2879,13 @@
         <v>2657</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -2888,13 +2894,13 @@
         <v>10129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -2903,19 +2909,19 @@
         <v>12786</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>11</v>
@@ -2924,13 +2930,13 @@
         <v>6972</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -2939,13 +2945,13 @@
         <v>11639</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
@@ -2954,19 +2960,19 @@
         <v>18610</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>329</v>
@@ -2975,13 +2981,13 @@
         <v>252906</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>337</v>
@@ -2990,13 +2996,13 @@
         <v>218188</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>666</v>
@@ -3005,13 +3011,13 @@
         <v>471094</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3032,13 @@
         <v>277223</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
@@ -3041,13 +3047,13 @@
         <v>275622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -3056,18 +3062,18 @@
         <v>552845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3079,13 +3085,13 @@
         <v>30943</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>83</v>
@@ -3094,13 +3100,13 @@
         <v>60494</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>112</v>
@@ -3109,13 +3115,13 @@
         <v>91437</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3136,13 @@
         <v>10376</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>31</v>
@@ -3145,13 +3151,13 @@
         <v>20002</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
@@ -3160,19 +3166,19 @@
         <v>30378</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>31</v>
@@ -3181,13 +3187,13 @@
         <v>30718</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="H36" s="7">
         <v>74</v>
@@ -3196,13 +3202,13 @@
         <v>54403</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
@@ -3211,19 +3217,19 @@
         <v>85122</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>529</v>
@@ -3232,13 +3238,13 @@
         <v>554640</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>771</v>
@@ -3247,13 +3253,13 @@
         <v>668647</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>1300</v>
@@ -3262,13 +3268,13 @@
         <v>1223288</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3289,13 @@
         <v>626677</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>959</v>
@@ -3298,13 +3304,13 @@
         <v>803546</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M38" s="7">
         <v>1557</v>
@@ -3313,18 +3319,18 @@
         <v>1430224</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3336,13 +3342,13 @@
         <v>84268</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H39" s="7">
         <v>208</v>
@@ -3351,13 +3357,13 @@
         <v>147077</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M39" s="7">
         <v>306</v>
@@ -3366,13 +3372,13 @@
         <v>231345</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3393,13 @@
         <v>26638</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -3402,13 +3408,13 @@
         <v>46571</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="M40" s="7">
         <v>101</v>
@@ -3417,19 +3423,19 @@
         <v>73209</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7">
         <v>54</v>
@@ -3438,13 +3444,13 @@
         <v>50374</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H41" s="7">
         <v>98</v>
@@ -3453,13 +3459,13 @@
         <v>70767</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="M41" s="7">
         <v>152</v>
@@ -3468,19 +3474,19 @@
         <v>121142</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7">
         <v>576</v>
@@ -3489,13 +3495,13 @@
         <v>698147</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H42" s="7">
         <v>688</v>
@@ -3504,13 +3510,13 @@
         <v>601257</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M42" s="7">
         <v>1264</v>
@@ -3519,13 +3525,13 @@
         <v>1299404</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3546,13 @@
         <v>859428</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="7">
         <v>1061</v>
@@ -3555,13 +3561,13 @@
         <v>865672</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
@@ -3570,13 +3576,13 @@
         <v>1725100</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3599,13 @@
         <v>174036</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H44" s="7">
         <v>533</v>
@@ -3608,13 +3614,13 @@
         <v>343355</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M44" s="7">
         <v>736</v>
@@ -3623,13 +3629,13 @@
         <v>517391</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3650,13 @@
         <v>65441</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>88</v>
+        <v>297</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="H45" s="7">
         <v>230</v>
@@ -3659,13 +3665,13 @@
         <v>138223</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M45" s="7">
         <v>309</v>
@@ -3674,19 +3680,19 @@
         <v>203664</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="7">
         <v>253</v>
@@ -3695,13 +3701,13 @@
         <v>223700</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H46" s="7">
         <v>582</v>
@@ -3713,31 +3719,31 @@
         <v>308</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M46" s="7">
         <v>835</v>
       </c>
       <c r="N46" s="7">
-        <v>560695</v>
+        <v>560696</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="7">
         <v>2839</v>
@@ -3746,13 +3752,13 @@
         <v>2919903</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H47" s="7">
         <v>4015</v>
@@ -3761,28 +3767,28 @@
         <v>2984948</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M47" s="7">
         <v>6854</v>
       </c>
       <c r="N47" s="7">
-        <v>5904851</v>
+        <v>5904852</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3803,13 @@
         <v>3383080</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="7">
         <v>5360</v>
@@ -3812,33 +3818,33 @@
         <v>3803521</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M48" s="7">
         <v>8734</v>
       </c>
       <c r="N48" s="7">
-        <v>7186601</v>
+        <v>7186602</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0BD1EC-DF7F-4E09-BE9D-79D0B036D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{412DA732-1A55-43DE-8521-352CCFD05E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FB2CCDC-1785-4BED-8795-CCE28366829E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60A7F557-1BC0-4A9E-87FB-BA065CE0A4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A707218-B433-4836-85E1-940E12D94515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E92FAA9-2F47-489F-A780-AA82FC6E563E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412DA732-1A55-43DE-8521-352CCFD05E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB17F6D6-431E-4D55-870A-6954993D3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60A7F557-1BC0-4A9E-87FB-BA065CE0A4D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4673A82A-5866-4766-AF74-466B9A2E2E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="322">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,838 +74,850 @@
     <t>0,85%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>8,26%</t>
   </si>
   <si>
     <t>81,23%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>69,46%</t>
   </si>
   <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>4,46%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>5,94%</t>
@@ -914,97 +926,79 @@
     <t>9,03%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>6,51%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>2,52%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>5,73%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1419,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E92FAA9-2F47-489F-A780-AA82FC6E563E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE35098C-B00E-4210-BCE9-CF9A7A2138B6}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,10 +1591,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -1609,13 +1603,13 @@
         <v>3721</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -1624,19 +1618,19 @@
         <v>5913</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -1648,10 +1642,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -1660,13 +1654,13 @@
         <v>3909</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -1675,19 +1669,19 @@
         <v>7185</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>321</v>
@@ -1696,13 +1690,13 @@
         <v>252629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>512</v>
@@ -1711,13 +1705,13 @@
         <v>260361</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>833</v>
@@ -1726,13 +1720,13 @@
         <v>512989</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,13 +1741,13 @@
         <v>260298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -1762,13 +1756,13 @@
         <v>271403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
@@ -1777,18 +1771,18 @@
         <v>531700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1800,13 +1794,13 @@
         <v>14321</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
@@ -1815,13 +1809,13 @@
         <v>40556</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -1830,13 +1824,13 @@
         <v>54877</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1845,13 @@
         <v>10341</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -1866,13 +1860,13 @@
         <v>28835</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -1881,19 +1875,19 @@
         <v>39176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
@@ -1902,13 +1896,13 @@
         <v>45584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>83</v>
@@ -1917,13 +1911,13 @@
         <v>57801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
@@ -1932,19 +1926,19 @@
         <v>103385</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>322</v>
@@ -1953,13 +1947,13 @@
         <v>447981</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>535</v>
@@ -1968,13 +1962,13 @@
         <v>426750</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>857</v>
@@ -1983,13 +1977,13 @@
         <v>874731</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +1998,13 @@
         <v>518227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>716</v>
@@ -2019,13 +2013,13 @@
         <v>553942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1097</v>
@@ -2034,18 +2028,18 @@
         <v>1072168</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2057,13 +2051,13 @@
         <v>4868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -2072,13 +2066,13 @@
         <v>18124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -2087,13 +2081,13 @@
         <v>22992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2102,13 @@
         <v>2637</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -2123,13 +2117,13 @@
         <v>9660</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -2138,19 +2132,19 @@
         <v>12297</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>14</v>
@@ -2159,13 +2153,13 @@
         <v>13282</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -2174,13 +2168,13 @@
         <v>17868</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -2189,19 +2183,19 @@
         <v>31149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>335</v>
@@ -2210,13 +2204,13 @@
         <v>301453</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>462</v>
@@ -2225,13 +2219,13 @@
         <v>327633</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>797</v>
@@ -2240,13 +2234,13 @@
         <v>629086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2255,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -2276,13 +2270,13 @@
         <v>373284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>896</v>
@@ -2291,18 +2285,18 @@
         <v>695524</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2314,13 +2308,13 @@
         <v>19523</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -2329,13 +2323,13 @@
         <v>32521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -2344,13 +2338,13 @@
         <v>52044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2359,13 @@
         <v>3708</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2398,16 +2392,16 @@
         <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>14</v>
@@ -2416,13 +2410,13 @@
         <v>15018</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -2431,13 +2425,13 @@
         <v>31370</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -2446,19 +2440,19 @@
         <v>46388</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>251</v>
@@ -2467,13 +2461,13 @@
         <v>283991</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>471</v>
@@ -2482,13 +2476,13 @@
         <v>357731</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>722</v>
@@ -2497,13 +2491,13 @@
         <v>641722</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2512,13 @@
         <v>322240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
@@ -2533,13 +2527,13 @@
         <v>428556</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
@@ -2548,18 +2542,18 @@
         <v>750796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2571,13 +2565,13 @@
         <v>3224</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2586,13 +2580,13 @@
         <v>5504</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -2601,13 +2595,13 @@
         <v>8729</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2616,13 @@
         <v>6891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -2637,13 +2631,13 @@
         <v>12372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2652,19 +2646,19 @@
         <v>19263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>87</v>
@@ -2673,13 +2667,13 @@
         <v>58476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
@@ -2688,13 +2682,13 @@
         <v>89239</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -2703,19 +2697,19 @@
         <v>147715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>176</v>
@@ -2724,13 +2718,13 @@
         <v>128157</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>239</v>
@@ -2739,13 +2733,13 @@
         <v>124380</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>415</v>
@@ -2754,13 +2748,13 @@
         <v>252537</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2769,13 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
@@ -2790,13 +2784,13 @@
         <v>231496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
@@ -2805,18 +2799,18 @@
         <v>428244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2828,13 +2822,13 @@
         <v>14689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>76</v>
@@ -2843,13 +2837,13 @@
         <v>35667</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
@@ -2858,13 +2852,13 @@
         <v>50355</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2873,13 @@
         <v>2657</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -2894,13 +2888,13 @@
         <v>10129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -2909,19 +2903,19 @@
         <v>12786</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>11</v>
@@ -2930,13 +2924,13 @@
         <v>6972</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -2945,13 +2939,13 @@
         <v>11639</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
@@ -2960,19 +2954,19 @@
         <v>18610</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>329</v>
@@ -2981,13 +2975,13 @@
         <v>252906</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>337</v>
@@ -2996,13 +2990,13 @@
         <v>218188</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>666</v>
@@ -3011,13 +3005,13 @@
         <v>471094</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3026,13 @@
         <v>277223</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
@@ -3047,13 +3041,13 @@
         <v>275622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -3062,18 +3056,18 @@
         <v>552845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3085,13 +3079,13 @@
         <v>30943</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>83</v>
@@ -3100,13 +3094,13 @@
         <v>60494</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>112</v>
@@ -3115,13 +3109,13 @@
         <v>91437</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3130,13 @@
         <v>10376</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>31</v>
@@ -3151,13 +3145,13 @@
         <v>20002</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
@@ -3166,19 +3160,19 @@
         <v>30378</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>31</v>
@@ -3187,13 +3181,13 @@
         <v>30718</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>74</v>
@@ -3202,13 +3196,13 @@
         <v>54403</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
@@ -3217,19 +3211,19 @@
         <v>85122</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>529</v>
@@ -3238,13 +3232,13 @@
         <v>554640</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>771</v>
@@ -3253,13 +3247,13 @@
         <v>668647</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M37" s="7">
         <v>1300</v>
@@ -3268,13 +3262,13 @@
         <v>1223288</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3283,13 @@
         <v>626677</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>959</v>
@@ -3304,13 +3298,13 @@
         <v>803546</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>1557</v>
@@ -3319,18 +3313,18 @@
         <v>1430224</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3342,13 +3336,13 @@
         <v>84268</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H39" s="7">
         <v>208</v>
@@ -3357,13 +3351,13 @@
         <v>147077</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M39" s="7">
         <v>306</v>
@@ -3372,13 +3366,13 @@
         <v>231345</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3387,13 @@
         <v>26638</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -3408,13 +3402,13 @@
         <v>46571</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="M40" s="7">
         <v>101</v>
@@ -3423,19 +3417,19 @@
         <v>73209</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="7">
         <v>54</v>
@@ -3444,13 +3438,13 @@
         <v>50374</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H41" s="7">
         <v>98</v>
@@ -3459,13 +3453,13 @@
         <v>70767</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="M41" s="7">
         <v>152</v>
@@ -3474,19 +3468,19 @@
         <v>121142</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>576</v>
@@ -3495,13 +3489,13 @@
         <v>698147</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H42" s="7">
         <v>688</v>
@@ -3510,13 +3504,13 @@
         <v>601257</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M42" s="7">
         <v>1264</v>
@@ -3525,13 +3519,13 @@
         <v>1299404</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3540,13 @@
         <v>859428</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>1061</v>
@@ -3561,13 +3555,13 @@
         <v>865672</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
@@ -3576,13 +3570,13 @@
         <v>1725100</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3593,13 @@
         <v>174036</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H44" s="7">
         <v>533</v>
@@ -3614,13 +3608,13 @@
         <v>343355</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M44" s="7">
         <v>736</v>
@@ -3629,13 +3623,13 @@
         <v>517391</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3644,13 @@
         <v>65441</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="H45" s="7">
         <v>230</v>
@@ -3665,13 +3659,13 @@
         <v>138223</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M45" s="7">
         <v>309</v>
@@ -3680,19 +3674,19 @@
         <v>203664</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" s="7">
         <v>253</v>
@@ -3701,13 +3695,13 @@
         <v>223700</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="H46" s="7">
         <v>582</v>
@@ -3719,31 +3713,31 @@
         <v>308</v>
       </c>
       <c r="K46" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M46" s="7">
         <v>835</v>
       </c>
       <c r="N46" s="7">
-        <v>560696</v>
+        <v>560695</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>2839</v>
@@ -3752,13 +3746,13 @@
         <v>2919903</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H47" s="7">
         <v>4015</v>
@@ -3767,28 +3761,28 @@
         <v>2984948</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M47" s="7">
         <v>6854</v>
       </c>
       <c r="N47" s="7">
-        <v>5904852</v>
+        <v>5904851</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3797,13 @@
         <v>3383080</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>5360</v>
@@ -3818,33 +3812,33 @@
         <v>3803521</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>8734</v>
       </c>
       <c r="N48" s="7">
-        <v>7186602</v>
+        <v>7186601</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB17F6D6-431E-4D55-870A-6954993D3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{360DBF2A-021E-41BE-834C-BCAD5B292141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4673A82A-5866-4766-AF74-466B9A2E2E8C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C347F3C3-608B-43DA-8E78-B4F7174B42E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="334">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -71,934 +71,970 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE35098C-B00E-4210-BCE9-CF9A7A2138B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AA7CE5-0001-4C5B-9EFB-985012AE1828}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1534,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2201</v>
+        <v>2434</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1549,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>3411</v>
+        <v>3551</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1564,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>5613</v>
+        <v>5985</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1585,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2192</v>
+        <v>2403</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1600,7 +1636,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>3721</v>
+        <v>3859</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1615,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>5913</v>
+        <v>6262</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1636,97 +1672,97 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>3276</v>
+        <v>3872</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>3909</v>
+        <v>4063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>7185</v>
+        <v>7935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>321</v>
       </c>
       <c r="D7" s="7">
-        <v>252629</v>
+        <v>302734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>512</v>
       </c>
       <c r="I7" s="7">
-        <v>260361</v>
+        <v>278162</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>833</v>
       </c>
       <c r="N7" s="7">
-        <v>512989</v>
+        <v>580895</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,51 +1774,51 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1791,46 +1827,46 @@
         <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>14321</v>
+        <v>13616</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>55</v>
       </c>
       <c r="I9" s="7">
-        <v>40556</v>
+        <v>37129</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>54877</v>
+        <v>50745</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,46 +1878,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>10341</v>
+        <v>9797</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>28835</v>
+        <v>26669</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>39176</v>
+        <v>36467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,97 +1929,97 @@
         <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>45584</v>
+        <v>43774</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>83</v>
       </c>
       <c r="I11" s="7">
-        <v>57801</v>
+        <v>53783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
       </c>
       <c r="N11" s="7">
-        <v>103385</v>
+        <v>97556</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>447981</v>
+        <v>450207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>426750</v>
+        <v>396821</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>857</v>
       </c>
       <c r="N12" s="7">
-        <v>874731</v>
+        <v>847028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,51 +2031,51 @@
         <v>381</v>
       </c>
       <c r="D13" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>716</v>
       </c>
       <c r="I13" s="7">
-        <v>553942</v>
+        <v>514403</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1097</v>
       </c>
       <c r="N13" s="7">
-        <v>1072168</v>
+        <v>1031796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2048,46 +2084,46 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>4868</v>
+        <v>4584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>18124</v>
+        <v>16750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
       </c>
       <c r="N14" s="7">
-        <v>22992</v>
+        <v>21334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2135,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>2637</v>
+        <v>2484</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>99</v>
@@ -2114,7 +2150,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="7">
-        <v>9660</v>
+        <v>8885</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -2129,7 +2165,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="7">
-        <v>12297</v>
+        <v>11369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -2138,7 +2174,7 @@
         <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,97 +2186,97 @@
         <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>13282</v>
+        <v>13096</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>17868</v>
+        <v>16687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>31149</v>
+        <v>29784</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>335</v>
       </c>
       <c r="D17" s="7">
-        <v>301453</v>
+        <v>295886</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>462</v>
       </c>
       <c r="I17" s="7">
-        <v>327633</v>
+        <v>306806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>797</v>
       </c>
       <c r="N17" s="7">
-        <v>629086</v>
+        <v>602691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,51 +2288,51 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
       </c>
       <c r="I18" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>896</v>
       </c>
       <c r="N18" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2305,46 +2341,46 @@
         <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>19523</v>
+        <v>18574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
       </c>
       <c r="I19" s="7">
-        <v>32521</v>
+        <v>30209</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
       </c>
       <c r="N19" s="7">
-        <v>52044</v>
+        <v>48783</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,46 +2392,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>3708</v>
+        <v>3510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>6933</v>
+        <v>6320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
       </c>
       <c r="N20" s="7">
-        <v>10642</v>
+        <v>9830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,97 +2443,97 @@
         <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>15018</v>
+        <v>14586</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
       </c>
       <c r="I21" s="7">
-        <v>31370</v>
+        <v>29386</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
       </c>
       <c r="N21" s="7">
-        <v>46388</v>
+        <v>43973</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>251</v>
       </c>
       <c r="D22" s="7">
-        <v>283991</v>
+        <v>275886</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>471</v>
       </c>
       <c r="I22" s="7">
-        <v>357731</v>
+        <v>409802</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>722</v>
       </c>
       <c r="N22" s="7">
-        <v>641722</v>
+        <v>685688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,51 +2545,51 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
       </c>
       <c r="I23" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
       </c>
       <c r="N23" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2562,46 +2598,46 @@
         <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>3224</v>
+        <v>2919</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>5504</v>
+        <v>4995</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>8729</v>
+        <v>7914</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,46 +2649,46 @@
         <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>6891</v>
+        <v>6165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>12372</v>
+        <v>11173</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
       </c>
       <c r="N25" s="7">
-        <v>19263</v>
+        <v>17338</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,97 +2700,97 @@
         <v>87</v>
       </c>
       <c r="D26" s="7">
-        <v>58476</v>
+        <v>53223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>209</v>
       </c>
       <c r="I26" s="7">
-        <v>89239</v>
+        <v>80931</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
       </c>
       <c r="N26" s="7">
-        <v>147715</v>
+        <v>134154</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>176</v>
       </c>
       <c r="D27" s="7">
-        <v>128157</v>
+        <v>116435</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>239</v>
       </c>
       <c r="I27" s="7">
-        <v>124380</v>
+        <v>111175</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>415</v>
       </c>
       <c r="N27" s="7">
-        <v>252537</v>
+        <v>227609</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,51 +2802,51 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
       </c>
       <c r="N28" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2819,46 +2855,46 @@
         <v>26</v>
       </c>
       <c r="D29" s="7">
-        <v>14689</v>
+        <v>13993</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>76</v>
       </c>
       <c r="I29" s="7">
-        <v>35667</v>
+        <v>33328</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
       </c>
       <c r="N29" s="7">
-        <v>50355</v>
+        <v>47320</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,46 +2906,46 @@
         <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>2657</v>
+        <v>2553</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
       </c>
       <c r="I30" s="7">
-        <v>10129</v>
+        <v>9440</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
       </c>
       <c r="N30" s="7">
-        <v>12786</v>
+        <v>11993</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,97 +2957,97 @@
         <v>11</v>
       </c>
       <c r="D31" s="7">
-        <v>6972</v>
+        <v>6725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
       </c>
       <c r="I31" s="7">
-        <v>11639</v>
+        <v>10891</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
       </c>
       <c r="N31" s="7">
-        <v>18610</v>
+        <v>17616</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>329</v>
       </c>
       <c r="D32" s="7">
-        <v>252906</v>
+        <v>246365</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>337</v>
       </c>
       <c r="I32" s="7">
-        <v>218188</v>
+        <v>203397</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>666</v>
       </c>
       <c r="N32" s="7">
-        <v>471094</v>
+        <v>449763</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,51 +3059,51 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3076,46 +3112,46 @@
         <v>29</v>
       </c>
       <c r="D34" s="7">
-        <v>30943</v>
+        <v>30158</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>83</v>
       </c>
       <c r="I34" s="7">
-        <v>60494</v>
+        <v>54739</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>112</v>
       </c>
       <c r="N34" s="7">
-        <v>91437</v>
+        <v>84898</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,46 +3163,46 @@
         <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>10376</v>
+        <v>10452</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>31</v>
       </c>
       <c r="I35" s="7">
-        <v>20002</v>
+        <v>18212</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
       </c>
       <c r="N35" s="7">
-        <v>30378</v>
+        <v>28665</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,97 +3214,97 @@
         <v>31</v>
       </c>
       <c r="D36" s="7">
-        <v>30718</v>
+        <v>29582</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>74</v>
       </c>
       <c r="I36" s="7">
-        <v>54403</v>
+        <v>50693</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
       </c>
       <c r="N36" s="7">
-        <v>85122</v>
+        <v>80276</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>529</v>
       </c>
       <c r="D37" s="7">
-        <v>554640</v>
+        <v>553057</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>771</v>
       </c>
       <c r="I37" s="7">
-        <v>668647</v>
+        <v>725030</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>1300</v>
       </c>
       <c r="N37" s="7">
-        <v>1223288</v>
+        <v>1278086</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,51 +3316,51 @@
         <v>598</v>
       </c>
       <c r="D38" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>959</v>
       </c>
       <c r="I38" s="7">
-        <v>803546</v>
+        <v>848675</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>1557</v>
       </c>
       <c r="N38" s="7">
-        <v>1430224</v>
+        <v>1471924</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3333,46 +3369,46 @@
         <v>98</v>
       </c>
       <c r="D39" s="7">
-        <v>84268</v>
+        <v>72372</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H39" s="7">
         <v>208</v>
       </c>
       <c r="I39" s="7">
-        <v>147077</v>
+        <v>123250</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M39" s="7">
         <v>306</v>
       </c>
       <c r="N39" s="7">
-        <v>231345</v>
+        <v>195621</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,46 +3420,46 @@
         <v>34</v>
       </c>
       <c r="D40" s="7">
-        <v>26638</v>
+        <v>22901</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
       </c>
       <c r="I40" s="7">
-        <v>46571</v>
+        <v>39120</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>101</v>
       </c>
       <c r="N40" s="7">
-        <v>73209</v>
+        <v>62021</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,97 +3471,97 @@
         <v>54</v>
       </c>
       <c r="D41" s="7">
-        <v>50374</v>
+        <v>42777</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>98</v>
       </c>
       <c r="I41" s="7">
-        <v>70767</v>
+        <v>59361</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>152</v>
       </c>
       <c r="N41" s="7">
-        <v>121142</v>
+        <v>102138</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>576</v>
       </c>
       <c r="D42" s="7">
-        <v>698147</v>
+        <v>790670</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>688</v>
       </c>
       <c r="I42" s="7">
-        <v>601257</v>
+        <v>493662</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>1264</v>
       </c>
       <c r="N42" s="7">
-        <v>1299404</v>
+        <v>1284332</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,46 +3573,46 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>1061</v>
       </c>
       <c r="I43" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
       </c>
       <c r="N43" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,46 +3626,46 @@
         <v>203</v>
       </c>
       <c r="D44" s="7">
-        <v>174036</v>
+        <v>158650</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>533</v>
       </c>
       <c r="I44" s="7">
-        <v>343355</v>
+        <v>303951</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>736</v>
       </c>
       <c r="N44" s="7">
-        <v>517391</v>
+        <v>462601</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,46 +3677,46 @@
         <v>79</v>
       </c>
       <c r="D45" s="7">
-        <v>65441</v>
+        <v>60266</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>26</v>
+        <v>311</v>
       </c>
       <c r="H45" s="7">
         <v>230</v>
       </c>
       <c r="I45" s="7">
-        <v>138223</v>
+        <v>123679</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="M45" s="7">
         <v>309</v>
       </c>
       <c r="N45" s="7">
-        <v>203664</v>
+        <v>183945</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>304</v>
+        <v>105</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>109</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,97 +3728,97 @@
         <v>253</v>
       </c>
       <c r="D46" s="7">
-        <v>223700</v>
+        <v>207635</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="H46" s="7">
         <v>582</v>
       </c>
       <c r="I46" s="7">
-        <v>336996</v>
+        <v>305795</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>835</v>
       </c>
       <c r="N46" s="7">
-        <v>560695</v>
+        <v>513430</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>2839</v>
       </c>
       <c r="D47" s="7">
-        <v>2919903</v>
+        <v>3031240</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>4015</v>
       </c>
       <c r="I47" s="7">
-        <v>2984948</v>
+        <v>2924853</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>6854</v>
       </c>
       <c r="N47" s="7">
-        <v>5904851</v>
+        <v>5956093</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,51 +3830,51 @@
         <v>3374</v>
       </c>
       <c r="D48" s="7">
-        <v>3383080</v>
+        <v>3457791</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>5360</v>
       </c>
       <c r="I48" s="7">
-        <v>3803521</v>
+        <v>3658279</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>8734</v>
       </c>
       <c r="N48" s="7">
-        <v>7186601</v>
+        <v>7116070</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que toma algún remedio para dormir (no medicamentos) en 2023</t>
+          <t>Población según la frecuencia con la que toma algún remedio para dormir (no medicamentos) en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
